--- a/project/databook_belarus.xlsx
+++ b/project/databook_belarus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>SN DS Infectious Prevalence</t>
   </si>
   <si>
-    <t>Number of SN DS-TB related deaths</t>
-  </si>
-  <si>
     <t>SN DS New cases</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>SN MDR Infectious Prevalence</t>
-  </si>
-  <si>
-    <t>Number of SN MDR TB-related deaths</t>
   </si>
   <si>
     <t>SN MDR New cases</t>
@@ -213,19 +207,7 @@
     <t>SN XDR Infectious Prevalence</t>
   </si>
   <si>
-    <t>Number of SN XDR TB-related deaths</t>
-  </si>
-  <si>
     <t>SN XDR New cases</t>
-  </si>
-  <si>
-    <t>Number of SP DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Number of SP MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Number of SP XDR TB-related deaths</t>
   </si>
   <si>
     <t>Number of Births</t>
@@ -481,6 +463,24 @@
   </si>
   <si>
     <t>Prison transfers</t>
+  </si>
+  <si>
+    <t>Percentage of SP XDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SP MDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SP DS-TB related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SN XDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SN MDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SN DS-TB related deaths</t>
   </si>
 </sst>
 </file>
@@ -846,10 +846,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -902,18 +902,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2313,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -11742,7 +11742,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -12596,7 +12596,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -12914,7 +12914,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -13591,7 +13591,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -13654,7 +13654,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C44" si="3">IF(SUMPRODUCT(--(E38:T38&lt;&gt;""))=0,3,"N.A.")</f>
@@ -13670,7 +13670,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
@@ -13686,7 +13686,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
@@ -13702,7 +13702,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
@@ -13718,7 +13718,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
@@ -13734,7 +13734,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
@@ -13750,7 +13750,7 @@
         <v>Population 7</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
@@ -13762,7 +13762,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -13825,7 +13825,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="4">IF(SUMPRODUCT(--(E47:T47&lt;&gt;""))=0,2,"N.A.")</f>
@@ -13841,7 +13841,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -13857,7 +13857,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -13873,7 +13873,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -13889,7 +13889,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -13905,7 +13905,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -13921,7 +13921,7 @@
         <v>Population 7</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -13996,7 +13996,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C62" si="5">IF(SUMPRODUCT(--(E56:T56&lt;&gt;""))=0,1,"N.A.")</f>
@@ -14012,7 +14012,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <f t="shared" si="5"/>
@@ -14028,7 +14028,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <f t="shared" si="5"/>
@@ -14044,7 +14044,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <f t="shared" si="5"/>
@@ -14060,7 +14060,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <f t="shared" si="5"/>
@@ -14076,7 +14076,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <f t="shared" si="5"/>
@@ -14092,7 +14092,7 @@
         <v>Population 7</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <f t="shared" si="5"/>
@@ -14104,7 +14104,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -15028,7 +15028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -15076,7 +15076,7 @@
         <v>0-4</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -15103,7 +15103,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -15130,7 +15130,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -15240,7 +15240,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B10" t="str">
         <f>'Population Definitions'!$B$2</f>
@@ -15334,7 +15334,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B19" t="str">
         <f>'Population Definitions'!$B$2</f>
@@ -15538,7 +15538,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -15562,7 +15562,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -15604,10 +15604,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -21709,7 +21709,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -21880,7 +21880,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -23456,7 +23456,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -23627,7 +23627,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -25204,7 +25204,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -25375,7 +25375,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -25744,8 +25744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="S111" sqref="S111"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26782,7 +26782,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -26953,7 +26953,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -27295,7 +27295,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -27466,7 +27466,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -27637,7 +27637,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -27808,7 +27808,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -28266,7 +28266,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -28329,7 +28329,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C8" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,2,"N.A.")</f>
@@ -28345,7 +28345,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -28361,7 +28361,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -28377,7 +28377,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -28393,7 +28393,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -28409,7 +28409,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -28425,7 +28425,7 @@
         <v>Population 7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -28437,7 +28437,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -28500,7 +28500,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C17" si="1">IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,1,"N.A.")</f>
@@ -28516,7 +28516,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -28532,7 +28532,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -28548,7 +28548,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -28564,7 +28564,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -28580,7 +28580,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -28596,7 +28596,7 @@
         <v>Population 7</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -28671,7 +28671,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C26" si="2">IF(SUMPRODUCT(--(E20:T20&lt;&gt;""))=0,3,"N.A.")</f>
@@ -28687,7 +28687,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -28703,7 +28703,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -28719,7 +28719,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
@@ -28735,7 +28735,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
@@ -28751,7 +28751,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -28767,7 +28767,7 @@
         <v>Population 7</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -28779,7 +28779,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -28842,7 +28842,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -28872,7 +28872,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -28887,7 +28887,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -28902,7 +28902,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -28917,7 +28917,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -28932,7 +28932,7 @@
         <v>Population 7</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -29006,7 +29006,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -29021,7 +29021,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -29036,7 +29036,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -29051,7 +29051,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -29066,7 +29066,7 @@
         <v>HIV 15+</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -29081,7 +29081,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -29096,7 +29096,7 @@
         <v>Population 7</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>0</v>
